--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.0908</v>
+        <v>6.8285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3601500000000001</v>
+        <v>0.9774</v>
       </c>
       <c r="D2" t="n">
-        <v>36.70865</v>
+        <v>35.58035</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.90935</v>
+        <v>28.18565000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>27.90935</v>
+        <v>28.18565000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>96.55419999999998</v>
+        <v>62.761</v>
       </c>
       <c r="L2" t="n">
-        <v>27.909</v>
+        <v>28.186</v>
       </c>
       <c r="M2" t="n">
-        <v>68.64519999999999</v>
+        <v>34.575</v>
       </c>
       <c r="N2" t="n">
-        <v>27.2368</v>
+        <v>7.780199999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>41.4084</v>
+        <v>26.7948</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.159</v>
+        <v>32.2</v>
       </c>
       <c r="G3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>181.899</v>
+        <v>33.7062</v>
       </c>
       <c r="L3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="M3" t="n">
-        <v>154.74</v>
+        <v>3.2372</v>
       </c>
       <c r="N3" t="n">
-        <v>34.5124</v>
+        <v>3.2372</v>
       </c>
       <c r="O3" t="n">
-        <v>120.2276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="L4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.6559</v>
+        <v>6.15235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27475</v>
+        <v>0.93665</v>
       </c>
       <c r="D2" t="n">
-        <v>36.37954999999999</v>
+        <v>35.22055</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.75555</v>
+        <v>27.95940000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>27.75555</v>
+        <v>27.95940000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>202.497</v>
+        <v>243.0678</v>
       </c>
       <c r="L2" t="n">
-        <v>27.756</v>
+        <v>27.959</v>
       </c>
       <c r="M2" t="n">
-        <v>174.741</v>
+        <v>215.1088</v>
       </c>
       <c r="N2" t="n">
-        <v>30.2046</v>
+        <v>8.942</v>
       </c>
       <c r="O2" t="n">
-        <v>144.5364</v>
+        <v>206.1668</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>9.052</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.811</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.424</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.159</v>
+        <v>31.066</v>
       </c>
       <c r="G3" t="n">
-        <v>27.159</v>
+        <v>29.558</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>380.1624</v>
+        <v>113.992</v>
       </c>
       <c r="L3" t="n">
-        <v>27.159</v>
+        <v>29.558</v>
       </c>
       <c r="M3" t="n">
-        <v>353.0034</v>
+        <v>84.434</v>
       </c>
       <c r="N3" t="n">
-        <v>32.476</v>
+        <v>7.8334</v>
       </c>
       <c r="O3" t="n">
-        <v>320.5274</v>
+        <v>76.6006</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.82</v>
+        <v>19.701</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>2.777</v>
       </c>
       <c r="D4" t="n">
-        <v>57.471</v>
+        <v>53.925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.767</v>
+        <v>32.838</v>
       </c>
       <c r="G4" t="n">
-        <v>32.76657260273973</v>
+        <v>32.83793698630137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.3144</v>
+        <v>36.2944</v>
       </c>
       <c r="L4" t="n">
-        <v>32.767</v>
+        <v>32.838</v>
       </c>
       <c r="M4" t="n">
-        <v>6.547400000000001</v>
+        <v>3.4564</v>
       </c>
       <c r="N4" t="n">
-        <v>6.547400000000001</v>
+        <v>3.4564</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.982350000000001</v>
+        <v>7.656700000000003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45955</v>
+        <v>1.08965</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36555</v>
+        <v>33.1677</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.15465</v>
+        <v>28.4108</v>
       </c>
       <c r="G2" t="n">
-        <v>28.15465</v>
+        <v>28.4108</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.9488</v>
+        <v>84.0228</v>
       </c>
       <c r="L2" t="n">
-        <v>28.155</v>
+        <v>28.411</v>
       </c>
       <c r="M2" t="n">
-        <v>19.7938</v>
+        <v>55.6118</v>
       </c>
       <c r="N2" t="n">
-        <v>18.0982</v>
+        <v>5.8288</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6956</v>
+        <v>49.7832</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.159</v>
+        <v>33.009</v>
       </c>
       <c r="G3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>163.3314</v>
+        <v>30.469</v>
       </c>
       <c r="L3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="M3" t="n">
-        <v>136.1724</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.8692</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>109.3032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="L4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.437100000000001</v>
+        <v>8.227700000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4499000000000001</v>
+        <v>1.13765</v>
       </c>
       <c r="D2" t="n">
-        <v>34.3741</v>
+        <v>33.19575</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2981</v>
+        <v>28.59765</v>
       </c>
       <c r="G2" t="n">
-        <v>28.2981</v>
+        <v>28.59765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.88160000000001</v>
+        <v>34.0072</v>
       </c>
       <c r="L2" t="n">
-        <v>28.29799999999999</v>
+        <v>28.598</v>
       </c>
       <c r="M2" t="n">
-        <v>9.583600000000001</v>
+        <v>5.409199999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>9.583600000000001</v>
+        <v>2.7584</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.6508</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.494</v>
+        <v>12.011</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.524</v>
       </c>
       <c r="D3" t="n">
-        <v>42.145</v>
+        <v>53.563</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.159</v>
+        <v>33.009</v>
       </c>
       <c r="G3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>109.7884</v>
+        <v>30.469</v>
       </c>
       <c r="L3" t="n">
-        <v>27.159</v>
+        <v>30.469</v>
       </c>
       <c r="M3" t="n">
-        <v>82.62939999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8.2324</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>74.39700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.539</v>
+        <v>33.227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056</v>
+        <v>1.978</v>
       </c>
       <c r="D4" t="n">
-        <v>56.321</v>
+        <v>54.428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="G4" t="n">
-        <v>35.19235616438356</v>
+        <v>37.05590136986302</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="L4" t="n">
-        <v>35.192</v>
+        <v>37.056</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.30265</v>
+        <v>7.97115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38925</v>
+        <v>0.89345</v>
       </c>
       <c r="D2" t="n">
-        <v>34.81815</v>
+        <v>34.04925</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.25815</v>
+        <v>28.5079</v>
       </c>
       <c r="G2" t="n">
-        <v>28.25815</v>
+        <v>28.5079</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>116.6688</v>
+        <v>134.3444</v>
       </c>
       <c r="L2" t="n">
-        <v>28.258</v>
+        <v>28.508</v>
       </c>
       <c r="M2" t="n">
-        <v>88.41080000000001</v>
+        <v>105.8364</v>
       </c>
       <c r="N2" t="n">
-        <v>11.2702</v>
+        <v>3.1986</v>
       </c>
       <c r="O2" t="n">
-        <v>77.14060000000001</v>
+        <v>102.6376</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.732</v>
+        <v>12.027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="D3" t="n">
-        <v>28.357</v>
+        <v>53.313</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.951</v>
+        <v>32.871</v>
       </c>
       <c r="G3" t="n">
-        <v>26.951</v>
+        <v>30.336</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.534</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.534</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>276.867</v>
+        <v>61.83459999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>26.951</v>
+        <v>30.337</v>
       </c>
       <c r="M3" t="n">
-        <v>249.916</v>
+        <v>31.4976</v>
       </c>
       <c r="N3" t="n">
-        <v>27.9278</v>
+        <v>0.2966</v>
       </c>
       <c r="O3" t="n">
-        <v>221.9882</v>
+        <v>31.2012</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.591</v>
+        <v>33.278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.784</v>
+        <v>1.705</v>
       </c>
       <c r="D4" t="n">
-        <v>56.364</v>
+        <v>54.473</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.181</v>
+        <v>37.044</v>
       </c>
       <c r="G4" t="n">
-        <v>35.18097260273973</v>
+        <v>37.04413424657535</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>61.94019999999998</v>
+        <v>45.0732</v>
       </c>
       <c r="L4" t="n">
-        <v>35.181</v>
+        <v>37.044</v>
       </c>
       <c r="M4" t="n">
-        <v>26.7592</v>
+        <v>8.029199999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1476</v>
+        <v>0.0442</v>
       </c>
       <c r="O4" t="n">
-        <v>26.6118</v>
+        <v>7.985200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.8285</v>
+        <v>6.87565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9774</v>
+        <v>1.2232</v>
       </c>
       <c r="D2" t="n">
-        <v>35.58035</v>
+        <v>35.04514999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>28.18565000000001</v>
+        <v>26.92725</v>
       </c>
       <c r="G2" t="n">
-        <v>28.18565000000001</v>
+        <v>26.92725</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>62.761</v>
+        <v>67.2974</v>
       </c>
       <c r="L2" t="n">
-        <v>28.186</v>
+        <v>26.927</v>
       </c>
       <c r="M2" t="n">
-        <v>34.575</v>
+        <v>40.3704</v>
       </c>
       <c r="N2" t="n">
-        <v>7.780199999999999</v>
+        <v>7.785999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>26.7948</v>
+        <v>32.5844</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>3.54</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>53.524</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.2</v>
+        <v>30.926</v>
       </c>
       <c r="G3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="H3" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
       <c r="I3" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.7062</v>
+        <v>32.437</v>
       </c>
       <c r="L3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2372</v>
+        <v>3.244</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2372</v>
+        <v>3.244</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="L4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.15235</v>
+        <v>6.19875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.93665</v>
+        <v>1.20455</v>
       </c>
       <c r="D2" t="n">
-        <v>35.22055</v>
+        <v>34.63824999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>27.95940000000001</v>
+        <v>26.70205</v>
       </c>
       <c r="G2" t="n">
-        <v>27.95940000000001</v>
+        <v>26.70205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>243.0678</v>
+        <v>229.8882</v>
       </c>
       <c r="L2" t="n">
-        <v>27.959</v>
+        <v>26.70200000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>215.1088</v>
+        <v>203.1862</v>
       </c>
       <c r="N2" t="n">
-        <v>8.942</v>
+        <v>8.9472</v>
       </c>
       <c r="O2" t="n">
-        <v>206.1668</v>
+        <v>194.2392</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.052</v>
+        <v>9.163</v>
       </c>
       <c r="C3" t="n">
-        <v>3.811</v>
+        <v>3.818</v>
       </c>
       <c r="D3" t="n">
-        <v>53.424</v>
+        <v>53.394</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.066</v>
+        <v>29.79</v>
       </c>
       <c r="G3" t="n">
-        <v>29.558</v>
+        <v>28.304</v>
       </c>
       <c r="H3" t="n">
-        <v>1.509</v>
+        <v>1.486</v>
       </c>
       <c r="I3" t="n">
-        <v>1.509</v>
+        <v>1.486</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>113.992</v>
+        <v>109.947</v>
       </c>
       <c r="L3" t="n">
-        <v>29.558</v>
+        <v>28.30399999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>84.434</v>
+        <v>81.643</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8334</v>
+        <v>7.8102</v>
       </c>
       <c r="O3" t="n">
-        <v>76.6006</v>
+        <v>73.83279999999999</v>
       </c>
     </row>
     <row r="4">
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.701</v>
+        <v>19.899</v>
       </c>
       <c r="C4" t="n">
-        <v>2.777</v>
+        <v>2.786</v>
       </c>
       <c r="D4" t="n">
-        <v>53.925</v>
+        <v>53.876</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.838</v>
+        <v>31.612</v>
       </c>
       <c r="G4" t="n">
-        <v>32.83793698630137</v>
+        <v>31.61164383561644</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.2944</v>
+        <v>35.071</v>
       </c>
       <c r="L4" t="n">
-        <v>32.838</v>
+        <v>31.612</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4564</v>
+        <v>3.459000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4564</v>
+        <v>3.459000000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.656700000000003</v>
+        <v>7.723350000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08965</v>
+        <v>1.3063</v>
       </c>
       <c r="D2" t="n">
-        <v>33.1677</v>
+        <v>32.7205</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.4108</v>
+        <v>27.15645</v>
       </c>
       <c r="G2" t="n">
-        <v>28.4108</v>
+        <v>27.15645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>84.0228</v>
+        <v>77.2728</v>
       </c>
       <c r="L2" t="n">
-        <v>28.411</v>
+        <v>27.156</v>
       </c>
       <c r="M2" t="n">
-        <v>55.6118</v>
+        <v>50.1168</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8288</v>
+        <v>5.8988</v>
       </c>
       <c r="O2" t="n">
-        <v>49.7832</v>
+        <v>44.218</v>
       </c>
     </row>
     <row r="3">
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>3.54</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>53.524</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.009</v>
+        <v>31.738</v>
       </c>
       <c r="G3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="L3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="L4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.227700000000002</v>
+        <v>8.298950000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13765</v>
+        <v>1.2959</v>
       </c>
       <c r="D2" t="n">
-        <v>33.19575</v>
+        <v>32.83895</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>28.59765</v>
+        <v>27.3412</v>
       </c>
       <c r="G2" t="n">
-        <v>28.59765</v>
+        <v>27.3412</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.0072</v>
+        <v>47.029</v>
       </c>
       <c r="L2" t="n">
-        <v>28.598</v>
+        <v>27.341</v>
       </c>
       <c r="M2" t="n">
-        <v>5.409199999999999</v>
+        <v>19.688</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7584</v>
+        <v>2.7378</v>
       </c>
       <c r="O2" t="n">
-        <v>2.6508</v>
+        <v>16.9502</v>
       </c>
     </row>
     <row r="3">
@@ -1299,37 +1299,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.011</v>
+        <v>12.049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.524</v>
+        <v>3.54</v>
       </c>
       <c r="D3" t="n">
-        <v>53.563</v>
+        <v>53.524</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.009</v>
+        <v>31.738</v>
       </c>
       <c r="G3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.544</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="L3" t="n">
-        <v>30.469</v>
+        <v>29.193</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.227</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.978</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.428</v>
+        <v>53.46</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05590136986302</v>
+        <v>35.8925808219178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="L4" t="n">
-        <v>37.056</v>
+        <v>35.893</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.97115</v>
+        <v>8.0367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.89345</v>
+        <v>1.05765</v>
       </c>
       <c r="D2" t="n">
-        <v>34.04925</v>
+        <v>33.68215</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0359</v>
       </c>
       <c r="F2" t="n">
-        <v>28.5079</v>
+        <v>27.25005000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>28.5079</v>
+        <v>27.25005000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>134.3444</v>
+        <v>145.9106</v>
       </c>
       <c r="L2" t="n">
-        <v>28.508</v>
+        <v>27.25</v>
       </c>
       <c r="M2" t="n">
-        <v>105.8364</v>
+        <v>118.6606</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1986</v>
+        <v>3.2118</v>
       </c>
       <c r="O2" t="n">
-        <v>102.6376</v>
+        <v>115.4488</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.027</v>
+        <v>12.081</v>
       </c>
       <c r="C3" t="n">
-        <v>2.27</v>
+        <v>2.901</v>
       </c>
       <c r="D3" t="n">
-        <v>53.313</v>
+        <v>52.019</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.871</v>
+        <v>31.645</v>
       </c>
       <c r="G3" t="n">
-        <v>30.336</v>
+        <v>29.105</v>
       </c>
       <c r="H3" t="n">
-        <v>2.534</v>
+        <v>2.54</v>
       </c>
       <c r="I3" t="n">
-        <v>2.534</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>61.83459999999999</v>
+        <v>42.3792</v>
       </c>
       <c r="L3" t="n">
-        <v>30.337</v>
+        <v>29.105</v>
       </c>
       <c r="M3" t="n">
-        <v>31.4976</v>
+        <v>13.2742</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2966</v>
+        <v>0.2958</v>
       </c>
       <c r="O3" t="n">
-        <v>31.2012</v>
+        <v>12.9786</v>
       </c>
     </row>
     <row r="4">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.278</v>
+        <v>33.529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.705</v>
+        <v>2.449</v>
       </c>
       <c r="D4" t="n">
-        <v>54.473</v>
+        <v>52.947</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.044</v>
+        <v>35.882</v>
       </c>
       <c r="G4" t="n">
-        <v>37.04413424657535</v>
+        <v>35.88203287671233</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.0732</v>
+        <v>35.926</v>
       </c>
       <c r="L4" t="n">
-        <v>37.044</v>
+        <v>35.882</v>
       </c>
       <c r="M4" t="n">
-        <v>8.029199999999999</v>
+        <v>0.044</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0442</v>
+        <v>0.044</v>
       </c>
       <c r="O4" t="n">
-        <v>7.985200000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
+++ b/SA_Capacity_Costs/SA_Capacity_Costs_HPHB.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.87565</v>
+        <v>5.8584</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2232</v>
+        <v>6.04675</v>
       </c>
       <c r="D2" t="n">
-        <v>35.04514999999999</v>
+        <v>37.04525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.08230000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92725</v>
+        <v>2290.62735</v>
       </c>
       <c r="G2" t="n">
-        <v>26.92725</v>
+        <v>2062.7902</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>227.8371</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>227.8371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>67.2974</v>
+        <v>2839.3604</v>
       </c>
       <c r="L2" t="n">
-        <v>26.927</v>
+        <v>2062.796</v>
       </c>
       <c r="M2" t="n">
-        <v>40.3704</v>
+        <v>776.5644</v>
       </c>
       <c r="N2" t="n">
-        <v>7.785999999999999</v>
+        <v>372.4055999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>32.5844</v>
+        <v>404.1588</v>
       </c>
     </row>
     <row r="3">
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.049</v>
+        <v>6.134</v>
       </c>
       <c r="C3" t="n">
-        <v>3.54</v>
+        <v>9.683</v>
       </c>
       <c r="D3" t="n">
-        <v>53.524</v>
+        <v>27.468</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.926</v>
+        <v>2400.139</v>
       </c>
       <c r="G3" t="n">
-        <v>29.193</v>
+        <v>2162.645</v>
       </c>
       <c r="H3" t="n">
-        <v>1.733</v>
+        <v>237.494</v>
       </c>
       <c r="I3" t="n">
-        <v>1.733</v>
+        <v>222.258</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.236</v>
       </c>
       <c r="K3" t="n">
-        <v>32.437</v>
+        <v>2558.546</v>
       </c>
       <c r="L3" t="n">
-        <v>29.193</v>
+        <v>2162.609</v>
       </c>
       <c r="M3" t="n">
-        <v>3.244</v>
+        <v>395.937</v>
       </c>
       <c r="N3" t="n">
-        <v>3.244</v>
+        <v>341.1596</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>54.7774</v>
       </c>
     </row>
     <row r="4">
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>7.022</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>8.914</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>36.723</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2589.978</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2305.23</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>284.748</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>284.748</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>35.893</v>
+        <v>2542.9758</v>
       </c>
       <c r="L4" t="n">
-        <v>35.893</v>
+        <v>2305.23</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>237.7458</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>217.774</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>19.9718</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.19875</v>
+        <v>5.9663</v>
       </c>
       <c r="C2" t="n">
-        <v>1.20455</v>
+        <v>6.7075</v>
       </c>
       <c r="D2" t="n">
-        <v>34.63824999999999</v>
+        <v>36.2501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.08020000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>26.70205</v>
+        <v>2324.3994</v>
       </c>
       <c r="G2" t="n">
-        <v>26.70205</v>
+        <v>2094.81395</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>229.5853999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>229.5853999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>229.8882</v>
+        <v>2365.7068</v>
       </c>
       <c r="L2" t="n">
-        <v>26.70200000000001</v>
+        <v>2094.82</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1862</v>
+        <v>270.8868</v>
       </c>
       <c r="N2" t="n">
-        <v>8.9472</v>
+        <v>270.8868</v>
       </c>
       <c r="O2" t="n">
-        <v>194.2392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.163</v>
+        <v>6.438</v>
       </c>
       <c r="C3" t="n">
-        <v>3.818</v>
+        <v>9.507</v>
       </c>
       <c r="D3" t="n">
-        <v>53.394</v>
+        <v>28.465</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.79</v>
+        <v>2432.563</v>
       </c>
       <c r="G3" t="n">
-        <v>28.304</v>
+        <v>2198.519</v>
       </c>
       <c r="H3" t="n">
-        <v>1.486</v>
+        <v>234.044</v>
       </c>
       <c r="I3" t="n">
-        <v>1.486</v>
+        <v>213.691</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20.353</v>
       </c>
       <c r="K3" t="n">
-        <v>109.947</v>
+        <v>2426.2362</v>
       </c>
       <c r="L3" t="n">
-        <v>28.30399999999999</v>
+        <v>2198.507</v>
       </c>
       <c r="M3" t="n">
-        <v>81.643</v>
+        <v>227.7292</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8102</v>
+        <v>227.7292</v>
       </c>
       <c r="O3" t="n">
-        <v>73.83279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.899</v>
+        <v>7.025</v>
       </c>
       <c r="C4" t="n">
-        <v>2.786</v>
+        <v>8.618</v>
       </c>
       <c r="D4" t="n">
-        <v>53.876</v>
+        <v>47.282</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>31.612</v>
+        <v>2674.647</v>
       </c>
       <c r="G4" t="n">
-        <v>31.61164383561644</v>
+        <v>2373.396</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>301.251</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>158.192</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>143.058</v>
       </c>
       <c r="K4" t="n">
-        <v>35.071</v>
+        <v>2470.723800000001</v>
       </c>
       <c r="L4" t="n">
-        <v>31.612</v>
+        <v>2373.396</v>
       </c>
       <c r="M4" t="n">
-        <v>3.459000000000001</v>
+        <v>97.3278</v>
       </c>
       <c r="N4" t="n">
-        <v>3.459000000000001</v>
+        <v>97.3278</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.723350000000001</v>
+        <v>5.8099</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3063</v>
+        <v>6.332949999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>32.7205</v>
+        <v>36.52495</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.08230000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>27.15645</v>
+        <v>2294.0657</v>
       </c>
       <c r="G2" t="n">
-        <v>27.15645</v>
+        <v>2064.3211</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>229.74445</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>229.74445</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.2728</v>
+        <v>2869.2772</v>
       </c>
       <c r="L2" t="n">
-        <v>27.156</v>
+        <v>2064.323</v>
       </c>
       <c r="M2" t="n">
-        <v>50.1168</v>
+        <v>804.9542</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8988</v>
+        <v>392.7458</v>
       </c>
       <c r="O2" t="n">
-        <v>44.218</v>
+        <v>412.2084</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.049</v>
+        <v>5.931</v>
       </c>
       <c r="C3" t="n">
-        <v>3.54</v>
+        <v>7.777</v>
       </c>
       <c r="D3" t="n">
-        <v>53.524</v>
+        <v>32.754</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.738</v>
+        <v>2390.068</v>
       </c>
       <c r="G3" t="n">
-        <v>29.193</v>
+        <v>2105.207</v>
       </c>
       <c r="H3" t="n">
-        <v>2.544</v>
+        <v>284.86</v>
       </c>
       <c r="I3" t="n">
-        <v>2.544</v>
+        <v>236.824</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>48.037</v>
       </c>
       <c r="K3" t="n">
-        <v>29.193</v>
+        <v>2700.518799999999</v>
       </c>
       <c r="L3" t="n">
-        <v>29.193</v>
+        <v>2105.182</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>595.3368</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>375.419</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>219.9178</v>
       </c>
     </row>
     <row r="4">
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>6.817</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>8.097</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>46.17</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2660.138</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2320.845</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>339.293</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.329</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>224.964</v>
       </c>
       <c r="K4" t="n">
-        <v>35.893</v>
+        <v>2576.5094</v>
       </c>
       <c r="L4" t="n">
-        <v>35.893</v>
+        <v>2320.845</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>255.6644</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>185.8148</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.8496</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.298950000000001</v>
+        <v>6.0771</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2959</v>
+        <v>6.4457</v>
       </c>
       <c r="D2" t="n">
-        <v>32.83895</v>
+        <v>38.5994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.003700000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3412</v>
+        <v>2367.3184</v>
       </c>
       <c r="G2" t="n">
-        <v>27.3412</v>
+        <v>2114.6003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.71795</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>252.71795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.029</v>
+        <v>2258.917</v>
       </c>
       <c r="L2" t="n">
-        <v>27.341</v>
+        <v>2114.603</v>
       </c>
       <c r="M2" t="n">
-        <v>19.688</v>
+        <v>144.314</v>
       </c>
       <c r="N2" t="n">
-        <v>2.7378</v>
+        <v>96.1254</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9502</v>
+        <v>48.1886</v>
       </c>
     </row>
     <row r="3">
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.049</v>
+        <v>6.604</v>
       </c>
       <c r="C3" t="n">
-        <v>3.54</v>
+        <v>9.411</v>
       </c>
       <c r="D3" t="n">
-        <v>53.524</v>
+        <v>29.692</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.738</v>
+        <v>2466.778</v>
       </c>
       <c r="G3" t="n">
-        <v>29.193</v>
+        <v>2223.196</v>
       </c>
       <c r="H3" t="n">
-        <v>2.544</v>
+        <v>243.582</v>
       </c>
       <c r="I3" t="n">
-        <v>2.544</v>
+        <v>227.899</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.683</v>
       </c>
       <c r="K3" t="n">
-        <v>29.193</v>
+        <v>2296.4916</v>
       </c>
       <c r="L3" t="n">
-        <v>29.193</v>
+        <v>2223.236</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>73.25559999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>73.25559999999999</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>7.025</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>8.618</v>
       </c>
       <c r="D4" t="n">
-        <v>53.46</v>
+        <v>47.282</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.893</v>
+        <v>2674.647</v>
       </c>
       <c r="G4" t="n">
-        <v>35.8925808219178</v>
+        <v>2373.396</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>301.251</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>158.192</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>143.058</v>
       </c>
       <c r="K4" t="n">
-        <v>35.893</v>
+        <v>2390.0244</v>
       </c>
       <c r="L4" t="n">
-        <v>35.893</v>
+        <v>2373.396</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.6284</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>16.6284</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.0367</v>
+        <v>6.0077</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05765</v>
+        <v>6.2403</v>
       </c>
       <c r="D2" t="n">
-        <v>33.68215</v>
+        <v>38.8293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0359</v>
+        <v>0.08070000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>27.25005000000001</v>
+        <v>2341.10255</v>
       </c>
       <c r="G2" t="n">
-        <v>27.25005000000001</v>
+        <v>2100.92505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>240.1773000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>240.1773000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.9106</v>
+        <v>2441.6388</v>
       </c>
       <c r="L2" t="n">
-        <v>27.25</v>
+        <v>2100.938</v>
       </c>
       <c r="M2" t="n">
-        <v>118.6606</v>
+        <v>340.7008</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2118</v>
+        <v>171.998</v>
       </c>
       <c r="O2" t="n">
-        <v>115.4488</v>
+        <v>168.703</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.081</v>
+        <v>6.575</v>
       </c>
       <c r="C3" t="n">
-        <v>2.901</v>
+        <v>7.969</v>
       </c>
       <c r="D3" t="n">
-        <v>52.019</v>
+        <v>34.013</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.645</v>
+        <v>2447.077</v>
       </c>
       <c r="G3" t="n">
-        <v>29.105</v>
+        <v>2196.681</v>
       </c>
       <c r="H3" t="n">
-        <v>2.54</v>
+        <v>250.396</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>211.053</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>39.343</v>
       </c>
       <c r="K3" t="n">
-        <v>42.3792</v>
+        <v>2400.2378</v>
       </c>
       <c r="L3" t="n">
-        <v>29.105</v>
+        <v>2196.634</v>
       </c>
       <c r="M3" t="n">
-        <v>13.2742</v>
+        <v>203.6038</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2958</v>
+        <v>135.9896</v>
       </c>
       <c r="O3" t="n">
-        <v>12.9786</v>
+        <v>67.61420000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.529</v>
+        <v>7.025</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449</v>
+        <v>8.618</v>
       </c>
       <c r="D4" t="n">
-        <v>52.947</v>
+        <v>47.282</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.882</v>
+        <v>2674.647</v>
       </c>
       <c r="G4" t="n">
-        <v>35.88203287671233</v>
+        <v>2373.396</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>301.251</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>158.192</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>143.058</v>
       </c>
       <c r="K4" t="n">
-        <v>35.926</v>
+        <v>2464.626</v>
       </c>
       <c r="L4" t="n">
-        <v>35.882</v>
+        <v>2373.396</v>
       </c>
       <c r="M4" t="n">
-        <v>0.044</v>
+        <v>91.22999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.044</v>
+        <v>65.83019999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>25.3998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>